--- a/Data/West Africa by country.xlsx
+++ b/Data/West Africa by country.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L2" sqref="L2:L40"/>
     </sheetView>
   </sheetViews>
